--- a/data/trans_camb/P54_A_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_3_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,78</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,7</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,92; -9,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,49; -7,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,81; -13,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,83; -9,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,03; -13,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,74; -11,67</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-98,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,24%</t>
         </is>
       </c>
     </row>
@@ -720,27 +720,27 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -74,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -86,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,66; -65,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -92,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,26; -78,75</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,47</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,5</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,29; -9,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,36; -9,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,38; -14,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,96; -16,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,1; -13,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,28; -14,02</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,38%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -88,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,27; -80,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,51; -64,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,99; -85,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,01; -76,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,75; -87,0</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,56</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,08</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,35</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,45; -6,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,03; -6,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,81; -10,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,11; -8,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,65; -9,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,9; -8,35</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,1%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,99%</t>
         </is>
       </c>
     </row>
@@ -1042,24 +1042,24 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-96,84; -77,87</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,72; -86,8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,69</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,07</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,5</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,68; -10,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,91; -10,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,44; -15,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,53; -10,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,67; -13,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,78; -11,18</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-98,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,72%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,17%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,87%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,07; -65,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,45; -72,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -93,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,37; -62,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,55; -84,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,57; -73,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-13,7</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-13,28</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-17,68</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-16,19</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-15,68</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-14,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-16,05; -11,67</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-15,65; -11,15</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-19,96; -15,55</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-18,44; -14,05</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-17,41; -14,06</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-16,36; -13,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-95,13%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-92,19%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-95,66%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-87,58%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-95,42%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-89,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-98,49; -85,38</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-95,31; -86,89</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-98,23; -87,72</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-91,41; -82,58</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-97,83; -90,22</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-92,2; -86,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P54_A_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_3_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-19,69</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-18,04</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-19,93</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-17,48</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-19,78</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-17,7</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-19.68533531660782</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-18.05599912764669</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-19.89830108112978</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-17.53331774083002</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-19.75696303893584</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-17.7273986082558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-42,92; -9,33</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-37,49; -7,63</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-29,81; -13,11</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-27,83; -9,35</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-32,03; -13,74</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-28,74; -11,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-40.30029234479158</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-37.59929330714674</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-30.15716178262923</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-27.8870276547013</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-31.49661158125316</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-28.75082590152335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-91,65%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-97,54%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-85,55%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-98,6%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-88,24%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-8.550215160837265</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-7.676224860844735</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-12.58876608878098</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-9.392645775232292</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-13.98786711169377</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-11.73112168109564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -74,52</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -86,89</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-94,66; -65,65</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -92,12</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-95,26; -78,75</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.9172309659573584</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.9738602528406035</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.858113523290295</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.9850909315187635</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.88389594969611</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-14,05</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-13,39</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-20,69</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-21,35</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-17,47</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-17,5</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.9472909877542168</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.9533663567600548</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-19,29; -9,83</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-18,36; -9,16</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-26,38; -14,61</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-26,96; -16,6</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-21,1; -13,63</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-21,28; -14,02</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="n">
+        <v>-0.7478632963105009</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.8435338330235861</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.6568703644152201</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.9113670141691607</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.7897919909260951</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-96,66%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-92,15%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-89,59%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-92,47%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-92,22%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-92,38%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-14.06289583024501</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-13.40331741241162</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-21.10871697523574</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-21.24539974686792</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-17.69523658146113</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-17.45298929243365</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -88,29</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-97,27; -80,91</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-97,51; -64,18</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-96,99; -85,24</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-97,01; -76,28</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-95,75; -87,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-19.06638465494233</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-18.3621654222509</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-26.55094864508796</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-26.89624947263476</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-21.5573418730965</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-21.25093079670827</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-9,86</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-9,86</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-13,94</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-12,56</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-12,08</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-11,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-9.726799015127062</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-9.15088085737384</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-15.45298831797382</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-16.47194976153958</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-14.42399451040319</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-13.96627715062769</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-14,45; -6,14</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-15,03; -6,09</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-18,81; -10,08</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-18,11; -8,96</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-15,65; -9,12</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-14,9; -8,35</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.9674927327045014</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.9221153556972642</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.9141373353681482</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.9200565404433386</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.9340731993470718</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.921285763629365</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-90,1%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-93,99%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.9724430234812834</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.972060468855894</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.9684844290884932</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.9744526574802879</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.9569406615232845</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-96,84; -77,87</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-97,72; -86,8</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>-0.8787079173053651</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-0.81061903481414</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.6974612279363475</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-0.8423139924305082</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>-0.8305479965260846</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.8643342779597583</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,325 +924,316 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-13,48</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-12,93</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-17,69</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-14,07</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-15,51</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-13,5</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-9.862811782078236</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-9.862811782078236</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-13.93721305346411</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-12.55581187231619</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-12.07525742202307</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-11.34807602663399</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-16,68; -10,62</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-15,91; -10,07</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-20,44; -15,03</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-17,53; -10,39</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-17,67; -13,41</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-15,78; -11,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-15.08980780404755</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-15.0345836240316</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-18.80525718350925</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-18.10259956474793</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-15.43480605528593</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-14.90704865043029</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-90,88%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-87,19%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-98,94%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-78,72%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-95,17%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-82,87%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-6.095388869897602</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-6.085191376915361</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-10.08349050577305</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-8.953210807417291</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>-9.105711727334825</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-8.344522170419959</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-98,07; -65,9</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-93,45; -72,59</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -93,87</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-88,37; -62,91</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-98,55; -84,22</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-89,57; -73,96</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.9008839732987667</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.9397792220923725</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-13,7</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-13,28</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-17,68</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-16,19</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-15,68</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-14,71</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="n">
+        <v>-0.9691613225754863</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="n">
+        <v>-0.9767758000481732</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-16,05; -11,67</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-15,65; -11,15</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-19,96; -15,55</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-18,44; -14,05</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-17,41; -14,06</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-16,36; -13,09</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="inlineStr"/>
+      <c r="F21" s="6" t="n">
+        <v>-0.7814222850251067</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="n">
+        <v>-0.8648669791198269</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-95,13%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-92,19%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-95,66%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-87,58%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-95,42%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-89,53%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-13.52227645309163</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-12.88208625057079</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-18.26696032791138</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-17.34879670097642</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-16.00167729085993</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-15.21701864905819</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-98,49; -85,38</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-95,31; -86,89</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-98,23; -87,72</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-91,41; -82,58</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-97,83; -90,22</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-92,2; -86,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-17.76617473055545</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-17.27889881474805</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-21.58043717023532</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-20.96959020316917</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-18.43244855144191</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-18.06005532993262</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-10.12062783800168</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-9.742858685800545</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-15.13700385447151</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-14.3029178719221</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-13.60328989865036</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-12.89321957710742</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.9837322600546593</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.9371590549456414</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.9475425662053107</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>-0.8999156428614749</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>-0.9618766920085342</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>-0.9147100828454261</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.9726265845990542</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.9829476646333607</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>-0.9400151854088015</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-0.9832229327029183</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>-0.9449747524174549</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-0.9365355264579128</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.8712331423008414</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.8551042978335508</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>-0.8455270186996986</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>-0.8961204065472612</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>-0.87813411368019</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
